--- a/biology/Médecine/Ligament_interclaviculaire/Ligament_interclaviculaire.xlsx
+++ b/biology/Médecine/Ligament_interclaviculaire/Ligament_interclaviculaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament interclaviculaire est un ligament impair de l'articulation sterno-claviculaire.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament interclaviculaire unit transversalement les deux extrémités médiales des deux clavicules.
-Son trajet est concave vers le haut en suivant la concavité de l'incisure jugulaire du sternum à laquelle il adhère par quelques fibres[1].
+Son trajet est concave vers le haut en suivant la concavité de l'incisure jugulaire du sternum à laquelle il adhère par quelques fibres.
 Il est en relation, en avant, avec le tégument et le muscle sterno-cléido-mastoïdien et en arrière avec le muscle sterno-thyroïdien.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Rôle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il permet la coordination des mouvements des deux ceintures scapulaires.
 </t>
@@ -575,7 +591,9 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La présence de ce ligament, rendant solidaire les deux clavicules, oblige une immobilisation bilatérale et symétrique en cas de fracture claviculaire unilatérale.
 </t>
